--- a/Venkel Scraper - Input Sample.xlsx
+++ b/Venkel Scraper - Input Sample.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://moseleyinc-my.sharepoint.com/personal/pgregg_moseleyinc_onmicrosoft_com/Documents/Data/Temp Working Folder/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7D39E8-B8F1-4D38-B95D-EE425921A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="435" windowWidth="21600" windowHeight="11385" xr2:uid="{5FBEABB3-3AF5-4AFB-BD18-5D5A5F62F2D1}"/>
+    <workbookView xWindow="1575" yWindow="435" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Query</t>
   </si>
@@ -90,12 +84,18 @@
   </si>
   <si>
     <t>C0402C0G500-820GNP</t>
+  </si>
+  <si>
+    <t>C0402C0G900-820GNp</t>
+  </si>
+  <si>
+    <t>C0402C0G500-112JNP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,7 +239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -433,18 +433,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCB8503-86D7-4011-8A59-C004657EC04E}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -539,6 +539,16 @@
       </c>
       <c r="E5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
